--- a/result/backup-data/back-up0.xlsx
+++ b/result/backup-data/back-up0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,46 +492,207 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>강원춘천시막장FC</t>
+          <t>FC리틀슛</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>창단일자
-20090101
-주소
-강원 춘천시 후만로126번길 31 (후평동, 대우아파트)11동102호
-연락처
-010-5242-0214
-감독
-김우경
+20070301
+주소
+부산 북구 화명대로94번길 45 (화명동, 화명그린힐아파트) 103동105호
+연락처
+010-4701-8300
+감독
+박성용
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FC목포</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>창단일자
+20091224
+주소
+전남 목포시 내화마을길 89 (대양동, 목포국제축구센터)
+연락처
+061-274-0171
+감독
+조덕제
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FC서울</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>창단일자
+19831222
+주소
+서울특별시 마포구 월드컵로 240 (성산동, 월드컵주경기장) 서울월드컵경기장 서측 4층 FC서울 사무실
+연락처
+02-376-3946
+감독
+안익수
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FC서울U18서울오산고</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>창단일자
+20121227
+주소
+서울특별시 마포구 월드컵로 240 (성산동, FC서울) FC서울 운영육성팀
+연락처
+02-376-3044
+감독
+윤현필
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FC안양</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>창단일자
+20130202
+주소
+경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
+연락처
+031-476-3500
+감독
+이우형
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FC증산</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>창단일자
+19970917
+주소
+경남 양산시 물금읍 물금로 9 (물금리) 더 스퀘어 201호
+연락처
+010-4635-5798
+감독
+김효준1
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FC충주</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>창단일자
+20180101
+주소
+충북 충주시 대림로 85 (호암동, 충주종합운동장) 3번게이트내 FC충주
+연락처
+043-848-7755
+감독
+김종필
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LS축구아카데미</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>창단일자
+20200805
+주소
+대구 달서구 상화북로 189 (상인동) 신동빌딩4층
+연락처
+010-8608-3439
+감독
+이진표
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>강원홍천군오룡축구단</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>창단일자
-20000501
-주소
-강원 홍천군 북방면 상화계4길 14 (상화계리, 성우빌라) 나동 101호
-연락처
-010-8812-5697
-감독
-오덕근
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>강원고성군간성클럽</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>창단일자
+20140302
+주소
+강원 고성군 간성읍 수성로 111 (상리, 종합운동장)
+연락처
+010-2171-6033
+감독
+박득쇠
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>

--- a/result/backup-data/back-up0.xlsx
+++ b/result/backup-data/back-up0.xlsx
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC충주</t>
+          <t>FC안양</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>창단일자
-20180101
-주소
-충북 충주시 대림로 85 (호암동, 충주종합운동장) 3번게이트내 FC충주
-연락처
-043-848-7755
-감독
-김종필
+20130202
+주소
+경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
+연락처
+031-476-3500
+감독
+이우형
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>

--- a/result/backup-data/back-up0.xlsx
+++ b/result/backup-data/back-up0.xlsx
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC안양</t>
+          <t>FC충주</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>창단일자
-20130202
-주소
-경기도 안양시 동안구 평촌대로 389 (비산동, 안양종합운동장) 안양종합운동장 내 FC안양 사무국
-연락처
-031-476-3500
-감독
-이우형
+20180101
+주소
+충북 충주시 대림로 85 (호암동, 충주종합운동장) 3번게이트내 FC충주
+연락처
+043-848-7755
+감독
+김종필
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
@@ -657,19 +657,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LS축구아카데미</t>
+          <t>FC증산</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>창단일자
-20200805
-주소
-대구 달서구 상화북로 189 (상인동) 신동빌딩4층
-연락처
-010-8608-3439
-감독
-이진표
+19970917
+주소
+경남 양산시 물금읍 물금로 9 (물금리) 더 스퀘어 201호
+연락처
+010-4635-5798
+감독
+김효준1
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>

--- a/result/backup-data/back-up0.xlsx
+++ b/result/backup-data/back-up0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,19 +680,520 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>강원고성군간성클럽</t>
+          <t>강원고성군거진FC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>창단일자
-20140302
-주소
-강원 고성군 간성읍 수성로 111 (상리, 종합운동장)
-연락처
-010-2171-6033
-감독
-박득쇠
+20210101
+주소
+강원도 고성군 거진읍 거진운동장길 30 (거진리) 1
+연락처
+010-4677-7077
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>강원고성군고성사랑축구회</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>창단일자
+20180102
+주소
+강원 고성군 토성면 장새미1길 11 (용암리) 용암리
+연락처
+010-2828-4338
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>강원고성군달홀FC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>창단일자
+20110101
+주소
+강원 고성군 간성읍 간성로 64 정일빌딩 3층
+연락처
+010-7708-4342
+감독
+최서희
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>강원고성군죽왕축구회</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>창단일자
+20050101
+주소
+강원도 고성군 간성읍 탑동길 12 (신안리, 고성경찰서) 금강파출소
+연락처
+010-9300-5682
+감독
+강완식
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>강원고성군토요축구회</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>창단일자
+1974
+주소
+강원 고성군 거진읍 화포2길 26 (화포리)
+연락처
+010-8727-2188
+감독
+고경태
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>강원동해시초록생활축구회</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>창단일자
+19780120
+주소
+강원 동해시 중앙로 143 (천곡동, 행복드림아파트) 105동 803호
+연락처
+010-5574-0690
+감독
+심영철
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>강원동해시해일생활축구회</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>창단일자
+19990101
+주소
+강원도 동해시 효자남길 26-1 (동회동, 동보상가) 꿀꿀이뱃살
+연락처
+010-9728-0717
+감독
+배기표
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>강원삼척시FC이글스</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>창단일자
+20000101
+주소
+강원도 삼척시 동해대로 4234 (교동, 삼척종합운동장) 삼척시축구협회
+연락처
+010-6375-1414
+감독
+지중근
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>강원삼척시가람FC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>창단일자
+20200501
+주소
+강원 삼척시 중앙로4길 14-34 가온누리스포츠
+연락처
+010-7188-0104
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>강원삼척시라온FC</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>창단일자
+20200129
+주소
+강원 삼척시 동해대로 4234 (교동, 삼척종합운동장)
+연락처
+010-6876-7720
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>강원삼척시미리내FC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>창단일자
+20230102
+주소
+강원 삼척시 도계읍 장원길 63 (도계리, 경동아파트) 12동 307호
+연락처
+010-4614-1984
+감독
+김동진
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>강원삼척시삼척동자FC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>창단일자
+20220711
+주소
+강원 삼척시 중앙시장1길 22-23 (남양동, 세연상가아파트) 708호
+연락처
+010-9528-2260
+감독
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>강원삼척시미리내FC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>창단일자
+20230102
+주소
+강원 삼척시 도계읍 장원길 63 (도계리, 경동아파트) 12동 307호
+연락처
+010-4614-1984
+감독
+김동진
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>강원삼척시원더플FC</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>창단일자
+20161002
+주소
+강원 삼척시 동해대로 4234 (교동, 삼척종합운동장) 삼척시축구협회
+연락처
+010-2758-1516
+감독
+이광철
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>강원속초시일오축구회</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>창단일자
+19810813
+주소
+강원도 속초시 번영로129번길 25 (동명동) (동명동)
+연락처
+010-4370-6085
+감독
+김명수
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>강원속초시청해FC축구회</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>창단일자
+20180701
+주소
+강원 속초시 중앙로 96 (청학동) 로데오센터빌딩 4층
+연락처
+010-2803-1271
+감독
+박일균
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>강원속초시클래스</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>창단일자
+20160101
+주소
+강원 속초시 청대마을길 37 (조양동) 청대리막국수
+연락처
+010-3699-5210
+감독
+장유민
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>강원속초시한솔축구회</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>창단일자
+2001
+주소
+강원 속초시 청대마을길 16-1 (조양동)신태용 축구교실 속초센터
+연락처
+010-5389-9489
+감독
+이서호
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>강원속초시해마축구회</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>창단일자
+19990301
+주소
+강원도 속초시 청대로204번길 40 (조양동, 부영아파트5단지) 501동~508동 505동111호
+연락처
+010-3115-4285
+감독
+김병일
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>강원속초시현대축구회</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>창단일자
+19890101
+주소
+강원도 속초시 소평로 68 (조양동) 257-4
+연락처
+010-5362-7747
+감독
+김성백
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>강원양구군BAEKDUUTD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>창단일자
+20211118
+주소
+강원 양구군 동면 금강산로 1801 (임당리, 대암아파트) e동 402호
+연락처
+010-2004-7995
+감독
+강민재
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>강원속초시현대축구회</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>창단일자
+19890101
+주소
+강원도 속초시 소평로 68 (조양동) 257-4
+연락처
+010-5362-7747
+감독
+김성백
+팀 관리에서 팀 SNS를 등록하세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>강원영월군동강FC60대</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>창단일자
+20000301
+주소
+강원도 영월군 영월읍 제방안길 100 (하송리, 영월스포츠파크) 영월군체육회
+연락처
+010-5214-2290
+감독
+방극원1
 팀 관리에서 팀 SNS를 등록하세요</t>
         </is>
       </c>
